--- a/2000503 - QUESTIONARIO PF VincenzoVerdi.xlsx
+++ b/2000503 - QUESTIONARIO PF VincenzoVerdi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="159">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -167,96 +167,6 @@
   </si>
   <si>
     <t>2.10</t>
-  </si>
-  <si>
-    <t>3. SEZIONE: TOLLERANZA ALLA OSCILLAZIONE DI PREZZO</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>4. SEZIONE: OBIETTIVI DI INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.2.1</t>
-  </si>
-  <si>
-    <t>4.2.2</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>5. SEZIONE: INVESTIMENTI ESG</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>5.4.a</t>
-  </si>
-  <si>
-    <t>5.4.b</t>
-  </si>
-  <si>
-    <t>5.4.c</t>
-  </si>
-  <si>
-    <t>6. SEZIONE AGGIUNTIVA (FACOLTATIVA)</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>6.5.1</t>
-  </si>
-  <si>
-    <t>6.5.2</t>
-  </si>
-  <si>
-    <t>6.5.3</t>
-  </si>
-  <si>
-    <t>6.5.4</t>
-  </si>
-  <si>
-    <t>6.5.5</t>
   </si>
   <si>
     <t>Cognome</t>
@@ -385,111 +295,6 @@
     <t>Quante persone dipendono economicamente da Lei?</t>
   </si>
   <si>
-    <t>Quale sarebbe la Sua reazione di fronte ad una perdita del 10% del valore del Suo portafoglio?</t>
-  </si>
-  <si>
-    <t>Quando pensa alla parola “rischio” in un contesto ﬁnanziario, cosa le viene in mente?</t>
-  </si>
-  <si>
-    <t>Quali obiettivi si prefigge di raggiungere con i Suoi investimenti avendo la possibilità di scegliere tra i 5 portafogli di investimenti ipotetici indicati nel grafico? (A titolo esemplificativo sono riportati il migliore ed il peggiore risultato cumulato al termine di un orizzonte temporale pari a 5 anni)</t>
-  </si>
-  <si>
-    <t>Tenuto conto delle Sue esigenze di liquidità, qual è il Suo orizzonte temporale di riferimento?</t>
-  </si>
-  <si>
-    <t>Avendo optato per il Breve o per il Medio termine, sarebbe interessato ad investire una parte del Suo portafoglio in prodotti caratterizzati da limitazioni al disinvestimento (es. Fondi di Investimento Alternativi Chiusi) oltre il Suo orizzonte temporale di riferimento?*</t>
-  </si>
-  <si>
-    <t>4.3 Quale percentuale del Suo portafoglio è disponibile ad investire in prodotti caratterizzati da limitazioni al disinvestimento?</t>
-  </si>
-  <si>
-    <t>(Laddove abbia risposto Si alla precedente domanda 4.2.2, la percentuale massima da Lei indicata potrebbe essere riferita – in relazione alle Sue scelte di investimento – anche esclusivamente a prodotti caratterizzati da limitazioni al disinvestimento oltre il Suo orizzonte temporale di riferimento).</t>
-  </si>
-  <si>
-    <t>* Non compilare per ORIZZONTE TEMPORALE LUNGO. ** Per i Clienti Professionali tale limite massimo è pari al 100%.</t>
-  </si>
-  <si>
-    <t>Tenuto conto che la nostra Società prevede che i Fondi di Investimento Alternativi chiusi nonché altri prodotti caratterizzati da limitazioni al disinvestimento possano essere sottoscritti fino ad una età massima di 75 anni, sarebbe interessato a prendere in considerazione l’investimento in tali strumenti anche per finalità successorie innalzando così l’età massima che Lei potrebbe avere alla sottoscrizione di tale tipologia di strumenti?</t>
-  </si>
-  <si>
-    <t>Al fine di cogliere opportunità di investimento diversificate e potenzialmente più interessanti rispetto ai tradizionali strumenti finanziari, quanta parte del Suo patrimonio investirebbe in strumenti finanziari complessi quali ad esempio le obbligazioni perpetue (vedi sul retro nota 2)?</t>
-  </si>
-  <si>
-    <t>* Per i Clienti Professionali tale limite massimo è pari al 100%.</t>
-  </si>
-  <si>
-    <t>Quali ritiene possano essere le Sue principali esigenze assicurative? (Ammessa risposta multipla)</t>
-  </si>
-  <si>
-    <t>Cosa si intende per investimenti ESG (Environmental, Social, Governance)?</t>
-  </si>
-  <si>
-    <t>Ha un interesse speciﬁco per una o più caratteristiche di sostenibilità?</t>
-  </si>
-  <si>
-    <t>A parità di rischio e rendimento, sarebbe interessato ad allocare una parte del Suo portafoglio in investimenti ESG e, se sì, in che misura?</t>
-  </si>
-  <si>
-    <t>* Il dettaglio percentuale della parte di portafoglio in investimenti ESG viene descritto in chiaro nella specifica sezione “Informativa sulla Sostenibilità” riportata all’interno dell’Opuscolo informativo disponibile sul sito internet www.azimut.it</t>
-  </si>
-  <si>
-    <t>DA COMPILARE SOLO SE SI È RISPOSTO SÌ ALLA DOMANDA 5.3</t>
-  </si>
-  <si>
-    <t>Gli strumenti ﬁnanziari che contribuiranno alla parte del Suo portafoglio indicata nella domanda precedente appartengono a una o più delle 
-tre categorie di seguito elencate. Per ciascuna di queste categorie, può indicare quali corrispondono alle Sue preferenze? (È sufﬁciente che lo 
-strumento ﬁnanziario soddisﬁ una delle seguenti preferenze)</t>
-  </si>
-  <si>
-    <t>a) Strumenti ﬁnanziari che tengono conto del loro impatto negativo sui fattori di sostenibilità, ovvero tematiche ambientali, sociali e relative ai diritti umani, di governance
-i. Impatti negativi sul clima o su altre tematiche ambientali
-ii. Impatti negativi su tematiche sociali, diritti umani o di governance</t>
-  </si>
-  <si>
-    <t>b) Strumenti ﬁnanziari che investono in un’attività economica che contribuisce ad obiettivi ambientali (Es. energie rinnovabili, la riduzione delle emissioni
-di gas serra, l’economia circolare) o sociali (Es. lotta contro la disuguaglianza, l’investimento nel capitale umano, la promozione della coesione sociale) 
-applicando pratiche di buona governance</t>
-  </si>
-  <si>
-    <t>c) Strumenti ﬁnanziari che investono in una o più attività economiche che contribuiscano in modo sostanziale ad almeno uno dei seguenti obiettivi ambienta-
-li: mitigazione dei cambiamenti climatici, adattamento ai cambiamenti climatici, uso sostenibile e protezione delle acque e delle risorse marine, transizione 
-verso un’economia circolare, prevenzione e riduzione dell’inquinamento, protezione e ripristino della biodiversità e degli ecosistemi</t>
-  </si>
-  <si>
-    <t>* Il dettaglio percentuale della quota minima viene descritto in chiaro nella specifica sezione “Informativa sulla Sostenibilità” riportata all’interno dell’Opuscolo Informativo, disponibile sul sito internet www.azimut.it.</t>
-  </si>
-  <si>
-    <t>Ha mai lavorato nel settore bancario, finanziario o assicurativo, con una posizione che possa far presumere l’acquisizione di conoscenza dei mercati finanziari?</t>
-  </si>
-  <si>
-    <t>Si aggiorna sull’andamento dei mercati finanziari?</t>
-  </si>
-  <si>
-    <t>Ha interesse per investimenti in opere d’arte e/o beni di lusso?</t>
-  </si>
-  <si>
-    <t>Qual è il periodo di Suo presumibile pensionamento?</t>
-  </si>
-  <si>
-    <t>Le nuove norme sulle crisi bancarie (che hanno introdotto anche il Bail in, ossia la partecipazione dei clienti alla copertura delle perdite della banca) hanno stabilito il principio in base al quale i Clienti che detengono strumenti finanziari più rischiosi devono contribuire in misura maggiore al risanamento della banca in crisi secondo la seguente scalettatura:
-- detentori di azioni; - detentori di obbligazioni subordinate non assistite da garanzia; - detentori di obbligazioni bancarie non assistite da garanzia; - depositanti per importi superiori a € 100.000,00.</t>
-  </si>
-  <si>
-    <t>E’ a conoscenza di questa normativa?</t>
-  </si>
-  <si>
-    <t>Ritiene soddisfacente il rendimento delle obbligazioni subordinate rispetto a quello delle obbligazioni ordinarie?</t>
-  </si>
-  <si>
-    <t>Ritiene soddisfacente il rendimento delle obbligazioni ordinarie rispetto a quello dei depositi in conto?</t>
-  </si>
-  <si>
-    <t>Ritiene soddisfacente il rendimento dei depositi in conto?</t>
-  </si>
-  <si>
-    <t>Secondo Lei, guardando il grafico quale è il Portafoglio che, su un arco temporale lungo, rende più efficiente la relazione tra rischio e rendimento?</t>
-  </si>
-  <si>
     <t>Verdi</t>
   </si>
   <si>
@@ -556,58 +361,18 @@
     <t>Meno di € 1.000</t>
   </si>
   <si>
-    <t>X-Nessuna</t>
-  </si>
-  <si>
-    <t>Liquido immediatamente gli investimenti, perché non sono disposto ad accettare
-ulteriori perdite</t>
-  </si>
-  <si>
-    <t>Pericolo di perdere in tutto o in parte il capitale investito</t>
-  </si>
-  <si>
-    <t>Investimento 1 - crescita limitata del capitale accettando una variabilità dei rendimenti bassa</t>
-  </si>
-  <si>
-    <t>Breve (fino a 3 anni)</t>
-  </si>
-  <si>
-    <t>No (Rispondendo No a questa domanda, la nostra Società potrà proporLe solo prodotti caratterizzati da limitazioni al disinvestimento nel Suo orizzonte temporale di riferimento)</t>
-  </si>
-  <si>
-    <t>Fino al 20%</t>
-  </si>
-  <si>
-    <t>Investimento/risparmio</t>
-  </si>
-  <si>
-    <t>Una tipologia di investimento che mira unicamente ad incrementare il rendimento ﬁnanziario</t>
+    <t>Nessuna</t>
+  </si>
+  <si>
+    <t>Coppia di fatto</t>
+  </si>
+  <si>
+    <t>X-No</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Non sono interessato</t>
-  </si>
-  <si>
-    <t>No, mai</t>
-  </si>
-  <si>
-    <t>No, non mi interessa</t>
-  </si>
-  <si>
-    <t>Entro i prossimi 10 anni</t>
-  </si>
-  <si>
-    <t>Portafoglio A</t>
-  </si>
-  <si>
-    <t>Coppia di fatto</t>
-  </si>
-  <si>
-    <t>X-No</t>
-  </si>
-  <si>
     <t>Il rendimento atteso di un investimento è, di norma, tanto più elevato quanto è maggiore il rischio ad esso associato</t>
   </si>
   <si>
@@ -656,55 +421,6 @@
     <t>Fino a 2</t>
   </si>
   <si>
-    <t>Liquido solo una parte degli investimenti per limitare le perdite in caso di ulteriori
-variazioni negative</t>
-  </si>
-  <si>
-    <t>Opportunità di sfruttare fasi di mercato ribassiste per conseguire guadagni</t>
-  </si>
-  <si>
-    <t>Investimento 2 - crescita contenuta del capitale accettando una variabilità dei rendimenti medio-bassa</t>
-  </si>
-  <si>
-    <t>Medio (da 3 a 8 anni)</t>
-  </si>
-  <si>
-    <t>Si (Rispondendo Si a questa domanda, la nostra Società potrà proporLe prodotti caratterizzati da limitazioni al disinvestimento anche oltre il Suo orizzonte temporale di riferimento)</t>
-  </si>
-  <si>
-    <t>Dal 20% al 30%</t>
-  </si>
-  <si>
-    <t>Protezione</t>
-  </si>
-  <si>
-    <t>Una tipologia di investimento che mira anche ad integrare fattori ambientali sociali e di governance tra le caratteristiche del prodotto ﬁnanziario</t>
-  </si>
-  <si>
-    <t>Si (Ammessa risposta multipla):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si   </t>
-  </si>
-  <si>
-    <t>Interessato</t>
-  </si>
-  <si>
-    <t>Interessato per almeno una quota minima*</t>
-  </si>
-  <si>
-    <t>Sì, ma in passato</t>
-  </si>
-  <si>
-    <t>Sì, ogni tanto nel corso dell’anno</t>
-  </si>
-  <si>
-    <t>Non prima di 10 anni ma entro i prossimi 15 anni</t>
-  </si>
-  <si>
-    <t>Portafoglio B</t>
-  </si>
-  <si>
     <t>Coniugato/a</t>
   </si>
   <si>
@@ -744,49 +460,6 @@
     <t>X-3 o 4</t>
   </si>
   <si>
-    <t>Mantengo gli investimenti, consapevole che le perdite potrebbero ampliﬁcarsi
-o ridursi</t>
-  </si>
-  <si>
-    <t>Incertezza sull’andamento futuro del valore del portafoglio</t>
-  </si>
-  <si>
-    <t>Investimento 3 - crescita moderata del capitale accettando una variabilità dei rendimenti media</t>
-  </si>
-  <si>
-    <t>Lungo (oltre 8 anni)</t>
-  </si>
-  <si>
-    <t>Dal 30% al 40%**</t>
-  </si>
-  <si>
-    <t>Dal 30% al 40%*</t>
-  </si>
-  <si>
-    <t>Tutela previdenziale</t>
-  </si>
-  <si>
-    <t>Non so rispondere</t>
-  </si>
-  <si>
-    <t>Environmental (Ambientale)</t>
-  </si>
-  <si>
-    <t>Bassa*</t>
-  </si>
-  <si>
-    <t>Sì, tuttora</t>
-  </si>
-  <si>
-    <t>Si, con una frequenza almeno mensile</t>
-  </si>
-  <si>
-    <t>Non prima di 15 anni ma entro i prossimi 20 anni</t>
-  </si>
-  <si>
-    <t>Portafoglio C</t>
-  </si>
-  <si>
     <t>Separato/a</t>
   </si>
   <si>
@@ -811,28 +484,6 @@
     <t>Più di 4</t>
   </si>
   <si>
-    <t>Mantengo e incremento in modo signiﬁcativo i miei investimenti, se ne ho la
-disponibilità</t>
-  </si>
-  <si>
-    <t>Investimento 4 - crescita discreta del capitale accettando una variabilità dei rendimenti medio-alta</t>
-  </si>
-  <si>
-    <t>Pianificare un investimento come società</t>
-  </si>
-  <si>
-    <t>Sociale</t>
-  </si>
-  <si>
-    <t>Media*</t>
-  </si>
-  <si>
-    <t>Si, quotidianamente</t>
-  </si>
-  <si>
-    <t>Non prima di 20 anni ma entro i prossimi 25 anni</t>
-  </si>
-  <si>
     <t>Divorziato/a</t>
   </si>
   <si>
@@ -848,28 +499,7 @@
     <t>Oltre € 1.000.000</t>
   </si>
   <si>
-    <t>Investimento 5 - crescita significativa del capitale accettando una variabilità dei rendimenti molto alta</t>
-  </si>
-  <si>
-    <t>Al momento non ho esigenze assicurative</t>
-  </si>
-  <si>
-    <t>Governance (Governo Societario)</t>
-  </si>
-  <si>
-    <t>Alta*</t>
-  </si>
-  <si>
-    <t>Non prima di 25 anni ma entro i prossimi 30 anni</t>
-  </si>
-  <si>
     <t>Vedovo/a</t>
-  </si>
-  <si>
-    <t>Non prima di 30 anni</t>
-  </si>
-  <si>
-    <t>Sono già in pensione</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1278,10 +908,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="J3">
         <v>100</v>
@@ -1295,10 +925,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="J4">
         <v>100</v>
@@ -1312,10 +942,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="J5">
         <v>100</v>
@@ -1329,7 +959,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1340,28 +970,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>265</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>275</v>
+        <v>158</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1372,10 +1002,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1387,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>266</v>
+        <v>154</v>
       </c>
       <c r="J8">
         <v>60</v>
@@ -1409,13 +1039,13 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="J10">
         <v>60</v>
@@ -1429,13 +1059,13 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="J11">
         <v>60</v>
@@ -1449,16 +1079,16 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1469,16 +1099,16 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="J13">
         <v>60</v>
@@ -1492,13 +1122,13 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="J14">
         <v>60</v>
@@ -1512,7 +1142,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1523,13 +1153,13 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="J16">
         <v>60</v>
@@ -1543,13 +1173,13 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="J17">
         <v>60</v>
@@ -1563,13 +1193,13 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="J18">
         <v>60</v>
@@ -1583,13 +1213,13 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="J19">
         <v>60</v>
@@ -1603,13 +1233,13 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="J20">
         <v>60</v>
@@ -1623,13 +1253,13 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="J21">
         <v>60</v>
@@ -1643,13 +1273,13 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="J22">
         <v>60</v>
@@ -1663,13 +1293,13 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
         <v>100</v>
       </c>
-      <c r="D23" t="s">
-        <v>162</v>
-      </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="J23">
         <v>60</v>
@@ -1683,13 +1313,13 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="J24">
         <v>60</v>
@@ -1703,13 +1333,13 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1720,13 +1350,13 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="J26">
         <v>60</v>
@@ -1740,13 +1370,13 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="J27">
         <v>60</v>
@@ -1760,13 +1390,13 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="J28">
         <v>60</v>
@@ -1780,13 +1410,13 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="J29">
         <v>60</v>
@@ -1800,13 +1430,13 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="J30">
         <v>60</v>
@@ -1820,13 +1450,13 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="J31">
         <v>60</v>
@@ -1840,19 +1470,19 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="F32" t="s">
-        <v>226</v>
+        <v>135</v>
       </c>
       <c r="G32" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="J32">
         <v>60</v>
@@ -1874,22 +1504,22 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="G34" t="s">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c r="H34" t="s">
-        <v>267</v>
+        <v>155</v>
       </c>
       <c r="J34">
         <v>60</v>
@@ -1903,22 +1533,22 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="F35" t="s">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="G35" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="H35" t="s">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c r="J35">
         <v>60</v>
@@ -1932,19 +1562,19 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="G36" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="J36">
         <v>60</v>
@@ -1958,22 +1588,22 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="F37" t="s">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="G37" t="s">
-        <v>255</v>
+        <v>150</v>
       </c>
       <c r="H37" t="s">
-        <v>269</v>
+        <v>157</v>
       </c>
       <c r="J37">
         <v>40</v>
@@ -1987,13 +1617,13 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="J38">
         <v>10</v>
@@ -2007,16 +1637,16 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="F39" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="J39">
         <v>10</v>
@@ -2030,16 +1660,16 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="F40" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="J40">
         <v>60</v>
@@ -2053,19 +1683,19 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="F41" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="G41" t="s">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="J41">
         <v>60</v>
@@ -2079,16 +1709,16 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="F42" t="s">
-        <v>234</v>
+        <v>143</v>
       </c>
       <c r="J42">
         <v>60</v>
@@ -2102,736 +1732,22 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="G43" t="s">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="J43">
         <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" t="s">
-        <v>175</v>
-      </c>
-      <c r="E45" t="s">
-        <v>207</v>
-      </c>
-      <c r="F45" t="s">
-        <v>236</v>
-      </c>
-      <c r="G45" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" t="s">
-        <v>176</v>
-      </c>
-      <c r="E56" t="s">
-        <v>208</v>
-      </c>
-      <c r="F56" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" t="s">
-        <v>177</v>
-      </c>
-      <c r="E58" t="s">
-        <v>209</v>
-      </c>
-      <c r="F58" t="s">
-        <v>238</v>
-      </c>
-      <c r="G58" t="s">
-        <v>259</v>
-      </c>
-      <c r="H58" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>56</v>
-      </c>
-      <c r="C73" t="s">
-        <v>123</v>
-      </c>
-      <c r="D73" t="s">
-        <v>178</v>
-      </c>
-      <c r="E73" t="s">
-        <v>210</v>
-      </c>
-      <c r="F73" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" t="s">
-        <v>124</v>
-      </c>
-      <c r="D74" t="s">
-        <v>179</v>
-      </c>
-      <c r="E74" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" t="s">
-        <v>125</v>
-      </c>
-      <c r="D75" t="s">
-        <v>180</v>
-      </c>
-      <c r="E75" t="s">
-        <v>212</v>
-      </c>
-      <c r="F75" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="C76" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="C77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" t="s">
-        <v>128</v>
-      </c>
-      <c r="D78" t="s">
-        <v>157</v>
-      </c>
-      <c r="E78" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>60</v>
-      </c>
-      <c r="C79" t="s">
-        <v>129</v>
-      </c>
-      <c r="D79" t="s">
-        <v>180</v>
-      </c>
-      <c r="E79" t="s">
-        <v>212</v>
-      </c>
-      <c r="F79" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="C80" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" t="s">
-        <v>131</v>
-      </c>
-      <c r="D81" t="s">
-        <v>181</v>
-      </c>
-      <c r="E81" t="s">
-        <v>213</v>
-      </c>
-      <c r="F81" t="s">
-        <v>242</v>
-      </c>
-      <c r="G81" t="s">
-        <v>260</v>
-      </c>
-      <c r="H81" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>63</v>
-      </c>
-      <c r="C83" t="s">
-        <v>132</v>
-      </c>
-      <c r="D83" t="s">
-        <v>182</v>
-      </c>
-      <c r="E83" t="s">
-        <v>214</v>
-      </c>
-      <c r="F83" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" t="s">
-        <v>133</v>
-      </c>
-      <c r="D84" t="s">
-        <v>183</v>
-      </c>
-      <c r="E84" t="s">
-        <v>215</v>
-      </c>
-      <c r="F84" t="s">
-        <v>244</v>
-      </c>
-      <c r="G84" t="s">
-        <v>261</v>
-      </c>
-      <c r="H84" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" t="s">
-        <v>134</v>
-      </c>
-      <c r="D85" t="s">
-        <v>183</v>
-      </c>
-      <c r="E85" t="s">
-        <v>216</v>
-      </c>
-      <c r="F85" t="s">
-        <v>245</v>
-      </c>
-      <c r="G85" t="s">
-        <v>262</v>
-      </c>
-      <c r="H85" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="C86" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="C87" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>66</v>
-      </c>
-      <c r="C88" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>67</v>
-      </c>
-      <c r="C89" t="s">
-        <v>138</v>
-      </c>
-      <c r="D89" t="s">
-        <v>184</v>
-      </c>
-      <c r="E89" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>68</v>
-      </c>
-      <c r="C90" t="s">
-        <v>139</v>
-      </c>
-      <c r="D90" t="s">
-        <v>184</v>
-      </c>
-      <c r="E90" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>69</v>
-      </c>
-      <c r="C91" t="s">
-        <v>140</v>
-      </c>
-      <c r="D91" t="s">
-        <v>184</v>
-      </c>
-      <c r="E91" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="C92" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>71</v>
-      </c>
-      <c r="C94" t="s">
-        <v>142</v>
-      </c>
-      <c r="D94" t="s">
-        <v>185</v>
-      </c>
-      <c r="E94" t="s">
-        <v>219</v>
-      </c>
-      <c r="F94" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" t="s">
-        <v>143</v>
-      </c>
-      <c r="D95" t="s">
-        <v>186</v>
-      </c>
-      <c r="E95" t="s">
-        <v>220</v>
-      </c>
-      <c r="F95" t="s">
-        <v>247</v>
-      </c>
-      <c r="G95" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>73</v>
-      </c>
-      <c r="C96" t="s">
-        <v>144</v>
-      </c>
-      <c r="D96" t="s">
-        <v>157</v>
-      </c>
-      <c r="E96" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>74</v>
-      </c>
-      <c r="C97" t="s">
-        <v>145</v>
-      </c>
-      <c r="D97" t="s">
-        <v>187</v>
-      </c>
-      <c r="E97" t="s">
-        <v>221</v>
-      </c>
-      <c r="F97" t="s">
-        <v>248</v>
-      </c>
-      <c r="G97" t="s">
-        <v>264</v>
-      </c>
-      <c r="H97" t="s">
-        <v>274</v>
-      </c>
-      <c r="I97" t="s">
-        <v>276</v>
-      </c>
-      <c r="J97" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>75</v>
-      </c>
-      <c r="C98" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>76</v>
-      </c>
-      <c r="C99" t="s">
-        <v>147</v>
-      </c>
-      <c r="D99" t="s">
-        <v>157</v>
-      </c>
-      <c r="E99" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>77</v>
-      </c>
-      <c r="C100" t="s">
-        <v>148</v>
-      </c>
-      <c r="D100" t="s">
-        <v>157</v>
-      </c>
-      <c r="E100" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101" t="s">
-        <v>149</v>
-      </c>
-      <c r="D101" t="s">
-        <v>157</v>
-      </c>
-      <c r="E101" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>79</v>
-      </c>
-      <c r="C102" t="s">
-        <v>150</v>
-      </c>
-      <c r="D102" t="s">
-        <v>157</v>
-      </c>
-      <c r="E102" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>80</v>
-      </c>
-      <c r="C103" t="s">
-        <v>151</v>
-      </c>
-      <c r="D103" t="s">
-        <v>188</v>
-      </c>
-      <c r="E103" t="s">
-        <v>222</v>
-      </c>
-      <c r="F103" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
